--- a/biology/Microbiologie/Capsaspora/Capsaspora.xlsx
+++ b/biology/Microbiologie/Capsaspora/Capsaspora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capsaspora owczarzaki · Capsasporidae
-Capsaspora est un genre d'Eucaryotes holozoaires, le seul de la famille des Capsasporidae, et qui n'est représenté que par une seule espèce, Capsaspora owczarzaki'[1] qui a été découverte infectant un escargot Biomphalaria glabrata.
+Capsaspora est un genre d'Eucaryotes holozoaires, le seul de la famille des Capsasporidae, et qui n'est représenté que par une seule espèce, Capsaspora owczarzaki' qui a été découverte infectant un escargot Biomphalaria glabrata.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Lynn A. Hertel, Christopher J. Bayne et Eric S. Loker, « The symbiont Capsaspora owczarzaki, nov. gen. nov. sp., isolated from three strains of the pulmonate snail Biomphalaria glabrata is related to members of the Mesomycetozoea », International Journal for Parasitology, Elsevier, vol. 32, no 9,‎ 1er août 2002, p. 1183-1191 (ISSN 0020-7519 et 1879-0135, OCLC 01771044, PMID 12117501, DOI 10.1016/S0020-7519(02)00066-8)</t>
         </is>
